--- a/passiv Einkommen.xlsx
+++ b/passiv Einkommen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liang\Documents\Crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F9127-9FEF-4FAD-AB6A-838E363847ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C50D008-83C3-48AD-9CB6-CE45871231DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investition" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,10 @@
   </si>
   <si>
     <t>Profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.07.2022</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B05628-D11E-4E56-9FF8-4F1C8103DE12}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,6 +961,21 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K6">
         <f>M5</f>
         <v>14</v>
@@ -1143,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBB93FC-A1F5-49D3-8EE8-8241063877BF}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1514,25 +1533,25 @@
         <v>4837.0128786300002</v>
       </c>
       <c r="C6" s="13">
-        <v>8.3000000000000004E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="6"/>
-        <v>401.47206892629004</v>
+        <v>304.73181135369003</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="7"/>
-        <v>5238.4849475562905</v>
+        <v>5141.7446899836905</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="8"/>
-        <v>1292.7549475562901</v>
+        <v>1196.0146899836902</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="9"/>
@@ -1601,7 +1620,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="5"/>
-        <v>5238.4849475562905</v>
+        <v>5141.7446899836905</v>
       </c>
       <c r="C7" s="13">
         <v>8.3000000000000004E-2</v>
@@ -1611,18 +1630,18 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="6"/>
-        <v>434.79425064717213</v>
+        <v>426.76480926864633</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="7"/>
-        <v>5673.2791982034623</v>
+        <v>5568.5094992523373</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="8"/>
-        <v>1727.5491982034623</v>
+        <v>1622.7794992523366</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="9"/>
@@ -1691,7 +1710,7 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="5"/>
-        <v>5673.2791982034623</v>
+        <v>5568.5094992523373</v>
       </c>
       <c r="C8" s="13">
         <v>8.3000000000000004E-2</v>
@@ -1701,18 +1720,18 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="6"/>
-        <v>470.88217345088742</v>
+        <v>462.18628843794403</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="7"/>
-        <v>6144.1613716543498</v>
+        <v>6030.6957876902816</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="8"/>
-        <v>2198.4313716543497</v>
+        <v>2084.9657876902806</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="9"/>
@@ -1781,7 +1800,7 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="5"/>
-        <v>6144.1613716543498</v>
+        <v>6030.6957876902816</v>
       </c>
       <c r="C9" s="13">
         <v>8.3000000000000004E-2</v>
@@ -1791,18 +1810,18 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="6"/>
-        <v>509.96539384731108</v>
+        <v>500.54775037829341</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="7"/>
-        <v>6654.1267655016609</v>
+        <v>6531.2435380685747</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="8"/>
-        <v>2708.3967655016609</v>
+        <v>2585.5135380685742</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="9"/>
@@ -1871,7 +1890,7 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" ref="B10:B12" si="16">G9</f>
-        <v>6654.1267655016609</v>
+        <v>6531.2435380685747</v>
       </c>
       <c r="C10" s="13">
         <v>8.3000000000000004E-2</v>
@@ -1881,18 +1900,18 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" ref="E10:E12" si="17">B10*C10</f>
-        <v>552.29252153663788</v>
+        <v>542.09321365969174</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" ref="G10:G12" si="18">B10+E10*F10+D10</f>
-        <v>7206.4192870382985</v>
+        <v>7073.3367517282668</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" ref="H10:H12" si="19">H9+E10</f>
-        <v>3260.689287038299</v>
+        <v>3127.6067517282659</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ref="I10:I12" si="20">B10*C10*(1-F10)</f>
@@ -1961,7 +1980,7 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="16"/>
-        <v>7206.4192870382985</v>
+        <v>7073.3367517282668</v>
       </c>
       <c r="C11" s="13">
         <v>8.3000000000000004E-2</v>
@@ -1971,18 +1990,18 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="17"/>
-        <v>598.13280082417884</v>
+        <v>587.08695039344616</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="18"/>
-        <v>7804.5520878624775</v>
+        <v>7660.4237021217132</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="19"/>
-        <v>3858.8220878624779</v>
+        <v>3714.6937021217118</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="20"/>
@@ -2051,7 +2070,7 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="16"/>
-        <v>7804.5520878624775</v>
+        <v>7660.4237021217132</v>
       </c>
       <c r="C12" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2061,18 +2080,18 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="17"/>
-        <v>647.77782329258571</v>
+        <v>635.81516727610222</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="18"/>
-        <v>8452.3299111550623</v>
+        <v>8296.2388693978155</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="19"/>
-        <v>4506.5999111550636</v>
+        <v>4350.5088693978141</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="20"/>
@@ -2141,7 +2160,7 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" ref="B13:B18" si="23">G12</f>
-        <v>8452.3299111550623</v>
+        <v>8296.2388693978155</v>
       </c>
       <c r="C13" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2151,18 +2170,18 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" ref="E13:E18" si="24">B13*C13</f>
-        <v>701.54338262587021</v>
+        <v>688.58782616001872</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" ref="G13:G18" si="25">B13+E13*F13+D13</f>
-        <v>9153.8732937809327</v>
+        <v>8984.8266955578347</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" ref="H13:H18" si="26">H12+E13</f>
-        <v>5208.1432937809341</v>
+        <v>5039.0966955578333</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ref="I13:I18" si="27">B13*C13*(1-F13)</f>
@@ -2231,7 +2250,7 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="23"/>
-        <v>9153.8732937809327</v>
+        <v>8984.8266955578347</v>
       </c>
       <c r="C14" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2241,18 +2260,18 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="24"/>
-        <v>759.77148338381744</v>
+        <v>745.7406157313003</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="25"/>
-        <v>9913.6447771647508</v>
+        <v>9730.5673112891345</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="26"/>
-        <v>5967.9147771647513</v>
+        <v>5784.8373112891331</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="27"/>
@@ -2321,7 +2340,7 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="23"/>
-        <v>9913.6447771647508</v>
+        <v>9730.5673112891345</v>
       </c>
       <c r="C15" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2331,18 +2350,18 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="24"/>
-        <v>822.83251650467435</v>
+        <v>807.63708683699815</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" si="25"/>
-        <v>10736.477293669424</v>
+        <v>10538.204398126132</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="26"/>
-        <v>6790.7472936694257</v>
+        <v>6592.4743981261308</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="27"/>
@@ -2411,7 +2430,7 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="23"/>
-        <v>10736.477293669424</v>
+        <v>10538.204398126132</v>
       </c>
       <c r="C16" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2421,34 +2440,34 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="24"/>
-        <v>891.12761537456231</v>
+        <v>874.67096504446897</v>
       </c>
       <c r="F16" s="6">
         <v>0.5</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="25"/>
-        <v>11182.041101356706</v>
+        <v>10975.539880648366</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="26"/>
-        <v>7681.8749090439878</v>
+        <v>7467.1453631705999</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="27"/>
-        <v>445.56380768728116</v>
+        <v>437.33548252223449</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="10"/>
-        <v>445.56380768728116</v>
+        <v>437.33548252223449</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="28"/>
-        <v>445.56380768728116</v>
+        <v>437.33548252223449</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="29"/>
-        <v>-3500.166192312719</v>
+        <v>-3508.3945174777655</v>
       </c>
       <c r="S16" s="8">
         <v>44986</v>
@@ -2501,7 +2520,7 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="23"/>
-        <v>11182.041101356706</v>
+        <v>10975.539880648366</v>
       </c>
       <c r="C17" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2511,34 +2530,34 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="24"/>
-        <v>928.10941141260662</v>
+        <v>910.96981009381443</v>
       </c>
       <c r="F17" s="6">
         <v>0.5</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="25"/>
-        <v>11646.095807063009</v>
+        <v>11431.024785695274</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="26"/>
-        <v>8609.984320456595</v>
+        <v>8378.1151732644139</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="27"/>
-        <v>464.05470570630331</v>
+        <v>455.48490504690722</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="10"/>
-        <v>464.05470570630331</v>
+        <v>455.48490504690722</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" si="28"/>
-        <v>464.05470570630331</v>
+        <v>455.48490504690722</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" si="29"/>
-        <v>-3036.1114866064158</v>
+        <v>-3052.909612430858</v>
       </c>
       <c r="S17" s="8">
         <v>45017</v>
@@ -2591,7 +2610,7 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="23"/>
-        <v>11646.095807063009</v>
+        <v>11431.024785695274</v>
       </c>
       <c r="C18" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2601,34 +2620,34 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="24"/>
-        <v>966.62595198622989</v>
+        <v>948.77505721270779</v>
       </c>
       <c r="F18" s="6">
         <v>0.5</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="25"/>
-        <v>12129.408783056124</v>
+        <v>11905.412314301628</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="26"/>
-        <v>9576.6102724428256</v>
+        <v>9326.8902304771218</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="27"/>
-        <v>483.31297599311495</v>
+        <v>474.3875286063539</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="10"/>
-        <v>483.31297599311495</v>
+        <v>474.3875286063539</v>
       </c>
       <c r="K18" s="11">
         <f t="shared" si="28"/>
-        <v>483.31297599311495</v>
+        <v>474.3875286063539</v>
       </c>
       <c r="L18" s="11">
         <f t="shared" si="29"/>
-        <v>-2552.798510613301</v>
+        <v>-2578.5220838245041</v>
       </c>
       <c r="S18" s="8">
         <v>45047</v>
@@ -2681,7 +2700,7 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" ref="B19:B23" si="38">G18</f>
-        <v>12129.408783056124</v>
+        <v>11905.412314301628</v>
       </c>
       <c r="C19" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2691,34 +2710,34 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" ref="E19:E23" si="39">B19*C19</f>
-        <v>1006.7409289936584</v>
+        <v>988.14922208703513</v>
       </c>
       <c r="F19" s="6">
         <v>0.5</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" ref="G19:G23" si="40">B19+E19*F19+D19</f>
-        <v>12632.779247552953</v>
+        <v>12399.486925345145</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" ref="H19:H23" si="41">H18+E19</f>
-        <v>10583.351201436484</v>
+        <v>10315.039452564157</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ref="I19:I23" si="42">B19*C19*(1-F19)</f>
-        <v>503.37046449682919</v>
+        <v>494.07461104351756</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="10"/>
-        <v>503.37046449682919</v>
+        <v>494.07461104351756</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" ref="K19:K23" si="43">I19-D19</f>
-        <v>503.37046449682919</v>
+        <v>494.07461104351756</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" ref="L19:L23" si="44">L18+K19</f>
-        <v>-2049.4280461164717</v>
+        <v>-2084.4474727809866</v>
       </c>
       <c r="S19" s="8">
         <v>45078</v>
@@ -2771,7 +2790,7 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="38"/>
-        <v>12632.779247552953</v>
+        <v>12399.486925345145</v>
       </c>
       <c r="C20" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2781,34 +2800,34 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="39"/>
-        <v>1048.5206775468951</v>
+        <v>1029.157414803647</v>
       </c>
       <c r="F20" s="6">
         <v>0.5</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="40"/>
-        <v>13157.0395863264</v>
+        <v>12914.06563274697</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="41"/>
-        <v>11631.87187898338</v>
+        <v>11344.196867367804</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="42"/>
-        <v>524.26033877344753</v>
+        <v>514.57870740182352</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="10"/>
-        <v>524.26033877344753</v>
+        <v>514.57870740182352</v>
       </c>
       <c r="K20" s="11">
         <f t="shared" si="43"/>
-        <v>524.26033877344753</v>
+        <v>514.57870740182352</v>
       </c>
       <c r="L20" s="11">
         <f t="shared" si="44"/>
-        <v>-1525.1677073430242</v>
+        <v>-1569.8687653791631</v>
       </c>
       <c r="S20" s="8">
         <v>45108</v>
@@ -2861,7 +2880,7 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="38"/>
-        <v>13157.0395863264</v>
+        <v>12914.06563274697</v>
       </c>
       <c r="C21" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2871,34 +2890,34 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="39"/>
-        <v>1092.0342856650914</v>
+        <v>1071.8674475179985</v>
       </c>
       <c r="F21" s="6">
         <v>0.5</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="40"/>
-        <v>13703.056729158947</v>
+        <v>13449.999356505969</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="41"/>
-        <v>12723.906164648472</v>
+        <v>12416.064314885802</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="42"/>
-        <v>546.01714283254569</v>
+        <v>535.93372375899924</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="10"/>
-        <v>546.01714283254569</v>
+        <v>535.93372375899924</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="43"/>
-        <v>546.01714283254569</v>
+        <v>535.93372375899924</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="44"/>
-        <v>-979.15056451047849</v>
+        <v>-1033.9350416201637</v>
       </c>
       <c r="S21" s="8">
         <v>45139</v>
@@ -2951,7 +2970,7 @@
       </c>
       <c r="B22" s="11">
         <f t="shared" si="38"/>
-        <v>13703.056729158947</v>
+        <v>13449.999356505969</v>
       </c>
       <c r="C22" s="13">
         <v>8.3000000000000004E-2</v>
@@ -2961,34 +2980,34 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="39"/>
-        <v>1137.3537085201926</v>
+        <v>1116.3499465899954</v>
       </c>
       <c r="F22" s="6">
         <v>0.5</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="40"/>
-        <v>14271.733583419043</v>
+        <v>14008.174329800966</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="41"/>
-        <v>13861.259873168665</v>
+        <v>13532.414261475797</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="42"/>
-        <v>568.67685426009632</v>
+        <v>558.1749732949977</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="10"/>
-        <v>568.67685426009632</v>
+        <v>558.1749732949977</v>
       </c>
       <c r="K22" s="11">
         <f t="shared" si="43"/>
-        <v>568.67685426009632</v>
+        <v>558.1749732949977</v>
       </c>
       <c r="L22" s="11">
         <f t="shared" si="44"/>
-        <v>-410.47371025038217</v>
+        <v>-475.760068325166</v>
       </c>
       <c r="S22" s="8">
         <v>45170</v>
@@ -3041,7 +3060,7 @@
       </c>
       <c r="B23" s="11">
         <f t="shared" si="38"/>
-        <v>14271.733583419043</v>
+        <v>14008.174329800966</v>
       </c>
       <c r="C23" s="13">
         <v>8.3000000000000004E-2</v>
@@ -3051,34 +3070,34 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="39"/>
-        <v>1184.5538874237807</v>
+        <v>1162.6784693734803</v>
       </c>
       <c r="F23" s="6">
         <v>0.5</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="40"/>
-        <v>14864.010527130933</v>
+        <v>14589.513564487706</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="41"/>
-        <v>15045.813760592446</v>
+        <v>14695.092730849277</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="42"/>
-        <v>592.27694371189034</v>
+        <v>581.33923468674016</v>
       </c>
       <c r="J23" s="11">
         <f t="shared" si="10"/>
-        <v>592.27694371189034</v>
+        <v>581.33923468674016</v>
       </c>
       <c r="K23" s="11">
         <f t="shared" si="43"/>
-        <v>592.27694371189034</v>
+        <v>581.33923468674016</v>
       </c>
       <c r="L23" s="11">
         <f t="shared" si="44"/>
-        <v>181.80323346150817</v>
+        <v>105.57916636157415</v>
       </c>
       <c r="S23" s="8">
         <v>45200</v>
